--- a/public/libs/Katsina_BPP_Procurement_Plan_template.xlsx
+++ b/public/libs/Katsina_BPP_Procurement_Plan_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="147">
   <si>
     <t>GUIDE ON HOW TO FILL IN THE TEMPLATE</t>
   </si>
@@ -207,9 +207,6 @@
   </si>
   <si>
     <t>Bid Closing / Opening date</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
   <si>
     <t>ProcessType</t>
@@ -510,7 +507,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -547,6 +544,10 @@
     </font>
     <font>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -612,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -712,11 +713,19 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -766,22 +775,46 @@
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="9" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="8" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2428,372 +2461,314 @@
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="19">
-        <v>43893.0</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="V2" s="20">
-        <v>43893.0</v>
-      </c>
-      <c r="W2" s="20">
-        <v>43893.0</v>
-      </c>
-      <c r="X2" s="20">
-        <v>43893.0</v>
-      </c>
-      <c r="Y2" s="20">
-        <v>43893.0</v>
-      </c>
-      <c r="Z2" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="20">
-        <v>43893.0</v>
-      </c>
-      <c r="AB2" s="20">
-        <v>43893.0</v>
-      </c>
-      <c r="AC2" s="20">
-        <v>43893.0</v>
-      </c>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
-      <c r="AA7" s="18"/>
-      <c r="AB7" s="18"/>
-      <c r="AC7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="18"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="18"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="17"/>
@@ -33504,253 +33479,253 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.0" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="2"/>
+      <c r="M1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" ht="15.0" customHeight="1">
+      <c r="A2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" ht="15.0" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="B2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="C2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+      <c r="B3" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="M3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="N3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="18" t="s">
+    </row>
+    <row r="4" ht="12.75" customHeight="1">
+      <c r="A4" s="18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="I4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="18" t="s">
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="B5" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
@@ -33758,10 +33733,10 @@
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -33770,10 +33745,10 @@
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -33782,10 +33757,10 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -33794,10 +33769,10 @@
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>118</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>119</v>
       </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -33806,10 +33781,10 @@
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -33818,10 +33793,10 @@
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -33830,10 +33805,10 @@
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -33842,10 +33817,10 @@
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -33854,10 +33829,10 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -33866,10 +33841,10 @@
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -33878,10 +33853,10 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -33890,10 +33865,10 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -33910,10 +33885,10 @@
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -33930,10 +33905,10 @@
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -33950,10 +33925,10 @@
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -33970,10 +33945,10 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -33990,10 +33965,10 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
@@ -34010,10 +33985,10 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
@@ -34028,7 +34003,7 @@
     <row r="21" ht="12.75" customHeight="1"/>
     <row r="22" ht="12.75" customHeight="1"/>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="F23" s="24"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" ht="12.75" customHeight="1"/>
     <row r="25" ht="12.75" customHeight="1"/>
